--- a/数据整理/stocks/A股/深证主板/002240-盛新锂能.xlsx
+++ b/数据整理/stocks/A股/深证主板/002240-盛新锂能.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006132</t>
+          <t>003834</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>万家智造优势混合A</t>
+          <t>华夏能源革新股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>103.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5628</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006133</t>
+          <t>005094</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>万家智造优势混合C</t>
+          <t>万家臻选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>55.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>64.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2460</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009968</t>
+          <t>009693</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金鹰内需成长混合A</t>
+          <t>富国积极成长一年定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.06</t>
+          <t>21.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.18</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6835</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009969</t>
+          <t>009968</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金鹰内需成长混合C</t>
+          <t>金鹰内需成长混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>93.06</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>7.18</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4832</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009693</t>
+          <t>210004</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国积极成长一年定期开放混合</t>
+          <t>金鹰稳健成长混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>96.94</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3096</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -642,15 +702,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>89.94</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>6.18</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2775</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>3</v>
       </c>
     </row>
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>210004</t>
+          <t>001298</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金鹰稳健成长混合</t>
+          <t>金鹰民族新兴灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001298</t>
+          <t>009969</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>金鹰民族新兴灵活配置混合</t>
+          <t>金鹰内需成长混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>89.71</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.53</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>003834</t>
+          <t>006132</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华夏能源革新股票</t>
+          <t>万家智造优势混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>92.63</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005094</t>
+          <t>006133</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>万家臻选混合</t>
+          <t>万家智造优势混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>64.83</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -777,7 +887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,15 +908,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -818,26 +938,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>210004</t>
+          <t>003834</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰稳健成长混合</t>
+          <t>华夏能源革新股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>78.03</t>
+          <t>162.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.5930</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -846,26 +976,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>210005</t>
+          <t>005094</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金鹰主题优势混合</t>
+          <t>万家臻选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>81.48</t>
+          <t>26.29</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8088</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009968</t>
+          <t>009693</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金鹰内需成长混合A</t>
+          <t>富国积极成长一年定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>82.12</t>
+          <t>19.27</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.37</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>96.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5704</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -902,25 +1052,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009969</t>
+          <t>210005</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金鹰内需成长混合C</t>
+          <t>金鹰主题优势混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>82.12</t>
+          <t>9.91</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.37</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>81.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4360</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
       </c>
     </row>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005094</t>
+          <t>210004</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>万家臻选混合</t>
+          <t>金鹰稳健成长混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.41</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>78.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3187</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003834</t>
+          <t>009968</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华夏能源革新股票</t>
+          <t>金鹰内需成长混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>88.97</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>82.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2325</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009693</t>
+          <t>009969</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国积极成长一年定期开放混合</t>
+          <t>金鹰内需成长混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>96.05</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>82.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002240-盛新锂能.xlsx
+++ b/数据整理/stocks/A股/深证主板/002240-盛新锂能.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,554 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>224.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.0004</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3663</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>52.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0174</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>65.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>48.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0360</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010587</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9204</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7338</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5265</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2450</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1731</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010588</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1079</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>48.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002240-盛新锂能.xlsx
+++ b/数据整理/stocks/A股/深证主板/002240-盛新锂能.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1752,4 +1753,2834 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>228.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>15.4432</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>72.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.1945</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005939</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.9919</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>53.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1331</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005940</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>47.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9231</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001245</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信生态环境行业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>46.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5445</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010587</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3662</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3398</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002296</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城行业轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>32.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3037</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005368</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2853</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>25.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2482</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7612</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5960</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>61.76</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5452</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005352</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏扬景泰成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5382</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4861</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010588</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4776</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012475</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>32.88</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>28.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4307</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信达澳银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4175</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006051</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3539</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009008</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2785</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2664</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>167001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安鼎泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2649</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006642</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2642</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2312</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011630</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1998</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001569</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰信国策驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1925</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1918</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1792</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1749</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001127</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中银宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1547</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002537</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>82.96</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011631</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005353</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏扬景泰成长混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1096</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>14.43</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009009</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>平安科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009853</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中加优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006052</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008178</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011127</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012696</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>39.93</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005343</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159881</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国泰中证有色金属交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009854</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中加优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001339</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>兴银鼎新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>68.51</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009855</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012476</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>平安优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>28.60</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008179</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000120</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中银美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>75.91</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005344</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005545</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>74.30</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>516680</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>建信中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>516650</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华夏中证细分有色金属产业主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>000591</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中银健康生活混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>98.25</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012697</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>39.93</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>003835</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>鹏华沪深港新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>75.90</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009856</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005443</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>国金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>63.57</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002240-盛新锂能.xlsx
+++ b/数据整理/stocks/A股/深证主板/002240-盛新锂能.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4583,4 +4584,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>73</v>
+      </c>
+      <c r="D2" t="n">
+        <v>44.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002240-盛新锂能.xlsx
+++ b/数据整理/stocks/A股/深证主板/002240-盛新锂能.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4592,7 +4593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4603,17 +4604,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4623,14 +4644,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>73</v>
-      </c>
-      <c r="D2" t="n">
-        <v>44.19</v>
+          <t>009318</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>321.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.5248</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -4639,14 +4682,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16.2</v>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>122.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.6448</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -4655,14 +4720,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.02</v>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8576</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -4671,13 +4758,2883 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010587</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3628</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005368</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2489</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2484</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>35.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1926</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007690</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0807</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9337</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>37.48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9295</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012148</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7422</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7135</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012149</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6935</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010588</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6520</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6508</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010033</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6482</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009319</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6244</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005352</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏扬景泰成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5235</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012850</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融低碳经济3个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>70.57</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4804</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4459</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006051</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3442</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009859</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华乐享混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2399</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002770</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2244</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2168</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000800</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商未来主题混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>74.36</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2029</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005119</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2014</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>562800</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实中证稀有金属主题ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1994</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1994</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011446</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1911</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002771</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1904</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1872</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011717</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1535</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1452</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007689</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1443</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005353</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏扬景泰成长混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005343</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1383</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1364</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1352</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005344</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1192</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009853</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中加优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011631</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012851</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中融低碳经济3个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>70.57</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006887</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>诺德新生活混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006052</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>159881</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国泰中证有色金属交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008178</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011447</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011630</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001681</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>新华积极价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011127</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009854</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中加优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010034</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>安信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008179</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011718</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>97.42</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>516680</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>建信中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>97.67</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>516650</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华夏中证细分有色金属产业主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>013437</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>013438</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006888</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>诺德新生活混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>76</v>
+      </c>
+      <c r="D2" t="n">
+        <v>39.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>73</v>
+      </c>
+      <c r="D3" t="n">
+        <v>44.19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>8.77</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002240-盛新锂能.xlsx
+++ b/数据整理/stocks/A股/深证主板/002240-盛新锂能.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7533,7 +7534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7544,17 +7545,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7564,14 +7585,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>76</v>
-      </c>
-      <c r="D2" t="n">
-        <v>39.03</v>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>187.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.1800</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -7580,14 +7623,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>73</v>
-      </c>
-      <c r="D3" t="n">
-        <v>44.19</v>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>112.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.6329</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -7596,14 +7661,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16.2</v>
+          <t>007689</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.7795</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -7612,14 +7699,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.02</v>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9469</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -7628,13 +7737,2979 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>007690</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8163</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>41.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7950</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012148</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>45.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6118</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4372</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>39.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3340</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005368</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2701</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010587</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0826</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>36.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8602</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012149</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6521</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6293</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010588</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5280</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5245</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012429</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4050</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005352</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏扬景泰成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3526</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2987</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2573</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012850</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融低碳经济3个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>65.64</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2540</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009859</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华乐享混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2256</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2185</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006051</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2146</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>562800</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实中证稀有金属主题ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2099</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1932</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1858</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>72.24</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005353</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏扬景泰成长混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>72.09</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011127</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159608</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发中证稀有金属ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>81.14</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012851</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中融低碳经济3个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>65.64</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>81.03</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006052</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>159881</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国泰中证有色金属交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007770</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>同泰开泰混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>78.13</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008178</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>72.09</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001571</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>39.83</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001572</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>39.83</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014331</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF联接A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>78.13</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008179</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014332</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF联接C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>516680</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>建信中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>96.13</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>516650</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华夏中证细分有色金属产业主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>007771</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>同泰开泰混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>673081</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>004359</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>创金合信量化核心混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>013437</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>97.59</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>673083</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>013438</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006857</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>78.16</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>004227</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>26.88</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006858</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>78.16</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>004228</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>26.88</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>79</v>
+      </c>
+      <c r="D2" t="n">
+        <v>42.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>76</v>
+      </c>
+      <c r="D3" t="n">
+        <v>39.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>73</v>
+      </c>
+      <c r="D4" t="n">
+        <v>44.19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>10</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>8.77</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002240-盛新锂能.xlsx
+++ b/数据整理/stocks/A股/深证主板/002240-盛新锂能.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10592,7 +10593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10603,17 +10604,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10623,14 +10644,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>79</v>
-      </c>
-      <c r="D2" t="n">
-        <v>42.37</v>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>205.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>15.3441</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -10639,14 +10682,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>76</v>
-      </c>
-      <c r="D3" t="n">
-        <v>39.03</v>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>111.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.3646</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -10655,14 +10720,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>73</v>
-      </c>
-      <c r="D4" t="n">
-        <v>44.19</v>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6196</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -10671,14 +10758,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>16.2</v>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2757</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -10687,14 +10796,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10.02</v>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>424.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2483</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -10703,13 +10834,5539 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>46.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2080</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5855</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001224</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中邮新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>35.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5074</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>28.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4697</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010587</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2680</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001245</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信生态环境行业股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>47.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1386</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015002</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银生态环境股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>47.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1386</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>35.81</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9275</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6232</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002620</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中邮未来新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.89</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6042</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5799</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010588</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5578</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5452</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5286</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>30.71</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4791</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012429</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4678</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005352</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏扬景泰成长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3833</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008980</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3623</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011891</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3384</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013188</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2921</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2685</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2546</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>562800</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实中证稀有金属主题ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2389</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>121008</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国投瑞银成长优选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2308</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2262</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2262</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>41.70</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2252</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005343</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.10</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1989</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010423</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1827</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1768</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000165</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国投瑞银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>74.66</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1747</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1746</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>84.15</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1712</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1573</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005344</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84.10</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1529</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>28.27</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>97.11</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>95.79</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1297</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008981</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1277</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1266</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014155</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013641</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博道成长智航股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>12.30</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>19.90</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014210</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国投瑞银竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005353</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏扬景泰成长混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011631</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>013642</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博道成长智航股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001990</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013942</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华宝中证稀有金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>014344</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011630</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>014156</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>014135</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011892</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>013943</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华宝中证稀有金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>159608</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>广发中证稀有金属ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>013081</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>970041</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>970042</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010570</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>97.11</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>95.83</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>159881</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>国泰中证有色金属交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>97.31</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010571</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>014345</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001520</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>国投瑞银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001572</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>39.30</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>004234</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>012021</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>国投瑞银安智混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>23.59</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010424</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>012022</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>国投瑞银安智混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>23.59</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>013371</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>民生加银新能源智选混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>76.38</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>561350</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>国泰中证500ETF</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>014136</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>516680</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>建信中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>012808</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>516650</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>华夏中证细分有色金属产业主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>64.34</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>013437</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>001571</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>39.30</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>004359</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>创金合信量化核心混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>005650</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>96.45</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>013372</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>民生加银新能源智选混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>76.38</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>014211</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>国投瑞银竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>98.36</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>013438</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>005651</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>004360</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>创金合信量化核心混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>95.86</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>004227</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>003582</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>中金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>004228</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>013918</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>147</v>
+      </c>
+      <c r="D2" t="n">
+        <v>52.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>79</v>
+      </c>
+      <c r="D3" t="n">
+        <v>42.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>76</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>73</v>
+      </c>
+      <c r="D5" t="n">
+        <v>44.19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>10</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>8.77</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002240-盛新锂能.xlsx
+++ b/数据整理/stocks/A股/深证主板/002240-盛新锂能.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="D2" t="n">
-        <v>52.71</v>
+        <v>36.14</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="D3" t="n">
-        <v>42.37</v>
+        <v>52.71</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D4" t="n">
-        <v>39.03</v>
+        <v>42.37</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D5" t="n">
-        <v>44.19</v>
+        <v>39.03</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="D6" t="n">
-        <v>16.2</v>
+        <v>44.19</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>10.02</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>10</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>8.77</v>
       </c>
     </row>
@@ -600,6 +617,3326 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H87"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>167.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.8653</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>115.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.7492</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012079</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信澳新能源精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>50.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1469</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0265</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012148</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2535</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001224</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中邮新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2385</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9860</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012149</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7938</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>70.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7549</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>27.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6714</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012748</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5929</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002620</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中邮未来新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5374</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4822</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>970010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4763</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>288002</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏收入混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4435</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013081</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4187</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信保诚中证800有色指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4187</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3953</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>45.95</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3722</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3245</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>17.77</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3163</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005344</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2992</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2988</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>信澳中小盘混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2622</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009859</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华乐享混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2450</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008980</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2247</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014488</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国投瑞银产业升级两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1940</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011001</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中邮兴荣价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>40.76</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1869</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013188</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1839</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008981</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1258</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.35</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>016950</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012749</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>015687</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>银华乐享混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013639</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013943</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华宝中证稀有金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011330</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华精选群英一年持有期灵活配置混合（MOM）</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005343</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014938</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>同泰产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>61.58</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>159881</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国泰中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>97.29</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012977</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013942</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华宝中证稀有金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011935</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>014489</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国投瑞银产业升级两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001572</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>159628</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>万家国证2000ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>97.72</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>013640</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012143</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>新沃内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012978</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011934</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>013371</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>民生加银新能源智选混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>77.61</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001571</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>95.99</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>013437</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>013438</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>970009</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>012926</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>民生加银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>013372</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>民生加银新能源智选混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>77.61</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>012144</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>新沃内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>012927</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>民生加银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>014939</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>同泰产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>61.58</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6239,7 +9576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9297,7 +12634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12237,7 +15574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15067,7 +18404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15617,7 +18954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15939,7 +19276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002240-盛新锂能.xlsx
+++ b/数据整理/stocks/A股/深证主板/002240-盛新锂能.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="D2" t="n">
-        <v>36.14</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="D3" t="n">
-        <v>52.71</v>
+        <v>36.14</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="D4" t="n">
-        <v>42.37</v>
+        <v>52.71</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D5" t="n">
-        <v>39.03</v>
+        <v>42.37</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D6" t="n">
-        <v>44.19</v>
+        <v>39.03</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="D7" t="n">
-        <v>16.2</v>
+        <v>44.19</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D8" t="n">
-        <v>10.02</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>10</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>8.77</v>
       </c>
     </row>
@@ -616,7 +633,1981 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>103.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5628</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2460</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6835</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009968</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4832</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>210004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3096</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>210005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰主题优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2775</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001298</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金鹰民族新兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009969</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>109.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.2336</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0040</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001224</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7880</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>016250</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏远见成长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6422</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>288002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏收入混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5427</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4927</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>106.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4031</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015285</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银产业转型一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3965</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3785</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005344</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3197</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3131</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>560010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>67.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2621</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>62.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2360</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159633</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>58.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2287</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159629</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>59.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2195</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009859</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华乐享混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2112</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>016251</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏远见成长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1987</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中邮兴荣价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>67.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1686</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014488</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国投瑞银产业升级两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>673081</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1368</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1265</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013262</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西部利得个股精选股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>673090</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>西部利得个股精选股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>015286</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国投瑞银产业转型一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>015687</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银华乐享混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005343</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>561800</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华富中证稀有金属主题ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.79</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>560110</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001572</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>37.90</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014489</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国投瑞银产业升级两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012808</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001571</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>37.90</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>673083</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>016033</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3936,7 +5927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9576,7 +11567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12634,7 +14625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15574,7 +17565,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18404,7 +20395,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18954,7 +20945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19274,440 +21265,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>003834</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏能源革新股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>103.70</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.63</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.5628</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005094</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>万家臻选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>55.87</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>64.83</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.2460</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009693</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国积极成长一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>21.03</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>96.94</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6835</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009968</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>金鹰内需成长混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.73</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.06</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.18</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4832</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>210004</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>金鹰稳健成长混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.45</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.47</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3096</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>210005</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>金鹰主题优势混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.94</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2775</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001298</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>金鹰民族新兴灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.71</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.53</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0842</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009969</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>金鹰内需成长混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.06</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7.18</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0732</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006132</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>万家智造优势混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0426</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006133</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>万家智造优势混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>